--- a/Euro 2020/fixtures.xlsx
+++ b/Euro 2020/fixtures.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admins\Desktop\Euro 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidApp\Euro2020\Euro 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DEED2F-EE6B-44F1-92C2-0C449E0FAE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68168886-7E94-41ED-B70C-29BC5DB4FF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C2CD83B-E6E4-4F94-BD57-E1E64B0F6C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -258,61 +259,241 @@
     <t>Saint Petersburg Stadium St Petersburg</t>
   </si>
   <si>
-    <t>Winner R16 match 42</t>
-  </si>
-  <si>
-    <t>Winner R16 match 41</t>
-  </si>
-  <si>
     <t>Football Arena Munich  Munich</t>
   </si>
   <si>
-    <t>Winner R16 match 40</t>
-  </si>
-  <si>
-    <t>Winner R16 match 38</t>
-  </si>
-  <si>
     <t>Baku Olympic Stadium Baku</t>
   </si>
   <si>
-    <t>Winner R16 match 39</t>
-  </si>
-  <si>
-    <t>Winner R16 match 37</t>
-  </si>
-  <si>
     <t>Olimpico in Rome Rome</t>
   </si>
   <si>
-    <t>Winner R16 match 44</t>
-  </si>
-  <si>
-    <t>Winner R16 match 43</t>
-  </si>
-  <si>
     <t>Semi-finals</t>
   </si>
   <si>
-    <t>Winner QF match 46</t>
-  </si>
-  <si>
-    <t>Winner QF match 45</t>
-  </si>
-  <si>
-    <t>Winner QF match 48</t>
-  </si>
-  <si>
-    <t>Winner QF match 47</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Winner SF match 49</t>
-  </si>
-  <si>
-    <t>Winner SF match 50</t>
+    <t>second_in_group_a</t>
+  </si>
+  <si>
+    <t>second_in_group_b</t>
+  </si>
+  <si>
+    <t>first_in_group_a</t>
+  </si>
+  <si>
+    <t>first_in_group_c</t>
+  </si>
+  <si>
+    <t>first_in_group_b</t>
+  </si>
+  <si>
+    <t>second_in_group_d</t>
+  </si>
+  <si>
+    <t>first_in_group_f</t>
+  </si>
+  <si>
+    <t>first_in_group_d</t>
+  </si>
+  <si>
+    <t>first_in_group_e</t>
+  </si>
+  <si>
+    <t>second_in_group_c</t>
+  </si>
+  <si>
+    <t>third_in_group_d_e_f</t>
+  </si>
+  <si>
+    <t>third_in_group_a_d_e_f</t>
+  </si>
+  <si>
+    <t>second_in_group_e</t>
+  </si>
+  <si>
+    <t>third_in_group_a_b_c</t>
+  </si>
+  <si>
+    <t>second_in_group_f</t>
+  </si>
+  <si>
+    <t>third_in_group_a_b_c_d</t>
+  </si>
+  <si>
+    <t>Nhì bảng A</t>
+  </si>
+  <si>
+    <t>Nhì bảng C</t>
+  </si>
+  <si>
+    <t>Nhì bảng B</t>
+  </si>
+  <si>
+    <t>Nhì bảng D</t>
+  </si>
+  <si>
+    <t>Nhì bảng F</t>
+  </si>
+  <si>
+    <t>Nhì bảng E</t>
+  </si>
+  <si>
+    <t>Nhất bảng A</t>
+  </si>
+  <si>
+    <t>Nhất bảng C</t>
+  </si>
+  <si>
+    <t>Nhất bảng B</t>
+  </si>
+  <si>
+    <t>Nhất bảng D</t>
+  </si>
+  <si>
+    <t>Nhất bảng F</t>
+  </si>
+  <si>
+    <t>Nhất bảng E</t>
+  </si>
+  <si>
+    <t>Winner R16 match 6</t>
+  </si>
+  <si>
+    <t>Winner R16 match 5</t>
+  </si>
+  <si>
+    <t>Winner R16 match 2</t>
+  </si>
+  <si>
+    <t>Winner R16 match 4</t>
+  </si>
+  <si>
+    <t>Winner R16 match 3</t>
+  </si>
+  <si>
+    <t>Winner R16 match 1</t>
+  </si>
+  <si>
+    <t>Winner R16 match 7</t>
+  </si>
+  <si>
+    <t>Winner R16 match 8</t>
+  </si>
+  <si>
+    <t>Winner QF2</t>
+  </si>
+  <si>
+    <t>Winner QF1</t>
+  </si>
+  <si>
+    <t>Winner QF3</t>
+  </si>
+  <si>
+    <t>Winner QF4</t>
+  </si>
+  <si>
+    <t>Winner SF1</t>
+  </si>
+  <si>
+    <t>Winner SF2</t>
+  </si>
+  <si>
+    <t>Ba bảng D/E hoặc F</t>
+  </si>
+  <si>
+    <t>Ba bảng A/D/E hoặc F</t>
+  </si>
+  <si>
+    <t>Ba bảng A/B hoặc C</t>
+  </si>
+  <si>
+    <t>Ba bảng A/B/C hoặc D</t>
+  </si>
+  <si>
+    <t>winner_r16_match_6</t>
+  </si>
+  <si>
+    <t>winner_r16_match_7</t>
+  </si>
+  <si>
+    <t>winner_r16_match_8</t>
+  </si>
+  <si>
+    <t>winner_r16_match_4</t>
+  </si>
+  <si>
+    <t>winner_r16_match_3</t>
+  </si>
+  <si>
+    <t>Thắng trận 6 vòng 1/16</t>
+  </si>
+  <si>
+    <t>winner_r16_match_5</t>
+  </si>
+  <si>
+    <t>winner_r16_match_2</t>
+  </si>
+  <si>
+    <t>winner_r16_match_1</t>
+  </si>
+  <si>
+    <t>Thắng trận 5 vòng 1/16</t>
+  </si>
+  <si>
+    <t>Thắng trận 2 vòng 1/16</t>
+  </si>
+  <si>
+    <t>Thắng trận 1 vòng 1/16</t>
+  </si>
+  <si>
+    <t>Thắng trận 7 vòng 1/16</t>
+  </si>
+  <si>
+    <t>Thắng trận 4 vòng 1/16</t>
+  </si>
+  <si>
+    <t>Thắng trận 3 vòng 1/16</t>
+  </si>
+  <si>
+    <t>Thắng trận 8 vòng 1/16</t>
+  </si>
+  <si>
+    <t>winner_qf2</t>
+  </si>
+  <si>
+    <t>winner_qf3</t>
+  </si>
+  <si>
+    <t>winner_qf4</t>
+  </si>
+  <si>
+    <t>Thắng trận Tứ kết 3</t>
+  </si>
+  <si>
+    <t>Thắng trận Tứ kết 4</t>
+  </si>
+  <si>
+    <t>winner_qf1</t>
+  </si>
+  <si>
+    <t>Thắng trận Tứ kết 1</t>
+  </si>
+  <si>
+    <t>Thắng trận Tứ kết 2</t>
+  </si>
+  <si>
+    <t>winner_sf1</t>
+  </si>
+  <si>
+    <t>Thắng trận Bán kết 1</t>
+  </si>
+  <si>
+    <t>winner_sf2</t>
+  </si>
+  <si>
+    <t>Thắng trận Bán kết 2</t>
   </si>
 </sst>
 </file>
@@ -676,11 +857,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D59385-C7E5-42AF-B9D7-20834E997CA0}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,7 +871,15 @@
     <col min="6" max="6" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="1"/>
     <col min="11" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="22" width="9.140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1719,7 +1906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1751,7 +1938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1783,7 +1970,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1815,7 +2002,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1847,7 +2034,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1879,7 +2066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1911,7 +2098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1943,7 +2130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1975,7 +2162,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2007,7 +2194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2039,7 +2226,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2071,7 +2258,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2103,7 +2290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2135,7 +2322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2149,10 +2336,10 @@
         <v>76</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="G46" s="1">
         <v>-1</v>
@@ -2167,8 +2354,9 @@
         <v>-1</v>
       </c>
       <c r="L46" s="2"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2179,13 +2367,13 @@
         <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G47" s="1">
         <v>-1</v>
@@ -2199,8 +2387,10 @@
       <c r="J47" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="2"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2211,13 +2401,13 @@
         <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="G48" s="1">
         <v>-1</v>
@@ -2231,8 +2421,10 @@
       <c r="J48" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2243,13 +2435,13 @@
         <v>75</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G49" s="1">
         <v>-1</v>
@@ -2263,8 +2455,10 @@
       <c r="J49" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2272,16 +2466,16 @@
         <v>1625572800822</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G50" s="1">
         <v>-1</v>
@@ -2296,7 +2490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2304,16 +2498,16 @@
         <v>1625659200822</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G51" s="1">
         <v>-1</v>
@@ -2328,7 +2522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2336,16 +2530,16 @@
         <v>1626004800822</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G52" s="1">
         <v>-1</v>
@@ -2365,4 +2559,616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141BC5EC-061A-4B94-9954-C06F0D46328C}">
+  <dimension ref="L38:V52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="V38" sqref="V38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="38" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f>"&lt;string name="""&amp;L38&amp;"""&gt;"&amp;Sheet1!E38&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_a"&gt;2nd in Group A&lt;/string&gt;</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f>"&lt;string name="""&amp;L38&amp;"""&gt;"&amp;N38&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_a"&gt;Nhì bảng A&lt;/string&gt;</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f>"&lt;string name="""&amp;P38&amp;"""&gt;"&amp;Sheet1!F38&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_b"&gt;2nd in Group B&lt;/string&gt;</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f>"&lt;string name="""&amp;P38&amp;"""&gt;"&amp;R38&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_b"&gt;Nhì bảng B&lt;/string&gt;</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1" t="str">
+        <f>"&lt;item&gt;@string/"&amp;L38&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;@string/second_in_group_a&lt;/item&gt;</v>
+      </c>
+      <c r="V38" s="1" t="str">
+        <f>"&lt;item&gt;@string/"&amp;P38&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;@string/second_in_group_b&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f>"&lt;string name="""&amp;L39&amp;"""&gt;"&amp;Sheet1!E39&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_a"&gt;1st in Group A&lt;/string&gt;</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" ref="O39:O52" si="0">"&lt;string name="""&amp;L39&amp;"""&gt;"&amp;N39&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_a"&gt;Nhất bảng A&lt;/string&gt;</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f>"&lt;string name="""&amp;P39&amp;"""&gt;"&amp;Sheet1!F39&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_c"&gt;2nd in Group C&lt;/string&gt;</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <f t="shared" ref="S39:S52" si="1">"&lt;string name="""&amp;P39&amp;"""&gt;"&amp;R39&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_c"&gt;Nhì bảng C&lt;/string&gt;</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="str">
+        <f t="shared" ref="U39:U52" si="2">"&lt;item&gt;@string/"&amp;L39&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;@string/first_in_group_a&lt;/item&gt;</v>
+      </c>
+      <c r="V39" s="1" t="str">
+        <f t="shared" ref="V39:V52" si="3">"&lt;item&gt;@string/"&amp;P39&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;@string/second_in_group_c&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f>"&lt;string name="""&amp;L40&amp;"""&gt;"&amp;Sheet1!E40&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_c"&gt;1st in Group C&lt;/string&gt;</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="first_in_group_c"&gt;Nhất bảng C&lt;/string&gt;</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f>"&lt;string name="""&amp;P40&amp;"""&gt;"&amp;Sheet1!F40&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="third_in_group_d_e_f"&gt;3rd in Groups D/E or F&lt;/string&gt;</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="third_in_group_d_e_f"&gt;Ba bảng D/E hoặc F&lt;/string&gt;</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/first_in_group_c&lt;/item&gt;</v>
+      </c>
+      <c r="V40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/third_in_group_d_e_f&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f>"&lt;string name="""&amp;L41&amp;"""&gt;"&amp;Sheet1!E41&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_b"&gt;1st in Group B&lt;/string&gt;</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="first_in_group_b"&gt;Nhất bảng B&lt;/string&gt;</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f>"&lt;string name="""&amp;P41&amp;"""&gt;"&amp;Sheet1!F41&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="third_in_group_a_d_e_f"&gt;3rd in Groups A/D/E or F&lt;/string&gt;</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="third_in_group_a_d_e_f"&gt;Ba bảng A/D/E hoặc F&lt;/string&gt;</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/first_in_group_b&lt;/item&gt;</v>
+      </c>
+      <c r="V41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/third_in_group_a_d_e_f&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f>"&lt;string name="""&amp;L42&amp;"""&gt;"&amp;Sheet1!E42&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_d"&gt;2nd in Group D&lt;/string&gt;</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="second_in_group_d"&gt;Nhì bảng D&lt;/string&gt;</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f>"&lt;string name="""&amp;P42&amp;"""&gt;"&amp;Sheet1!F42&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_e"&gt;2nd in Group E&lt;/string&gt;</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="second_in_group_e"&gt;Nhì bảng E&lt;/string&gt;</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/second_in_group_d&lt;/item&gt;</v>
+      </c>
+      <c r="V42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/second_in_group_e&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f>"&lt;string name="""&amp;L43&amp;"""&gt;"&amp;Sheet1!E43&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_f"&gt;1st in Group F&lt;/string&gt;</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="first_in_group_f"&gt;Nhất bảng F&lt;/string&gt;</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f>"&lt;string name="""&amp;P43&amp;"""&gt;"&amp;Sheet1!F43&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="third_in_group_a_b_c"&gt;3rd in Groups A/B or C&lt;/string&gt;</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="third_in_group_a_b_c"&gt;Ba bảng A/B hoặc C&lt;/string&gt;</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/first_in_group_f&lt;/item&gt;</v>
+      </c>
+      <c r="V43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/third_in_group_a_b_c&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f>"&lt;string name="""&amp;L44&amp;"""&gt;"&amp;Sheet1!E44&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_d"&gt;1st in Group D&lt;/string&gt;</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="first_in_group_d"&gt;Nhất bảng D&lt;/string&gt;</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q44" s="1" t="str">
+        <f>"&lt;string name="""&amp;P44&amp;"""&gt;"&amp;Sheet1!F44&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="second_in_group_f"&gt;2nd in Group F&lt;/string&gt;</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="second_in_group_f"&gt;Nhì bảng F&lt;/string&gt;</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/first_in_group_d&lt;/item&gt;</v>
+      </c>
+      <c r="V44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/second_in_group_f&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f>"&lt;string name="""&amp;L45&amp;"""&gt;"&amp;Sheet1!E45&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="first_in_group_e"&gt;1st in Group E&lt;/string&gt;</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="first_in_group_e"&gt;Nhất bảng E&lt;/string&gt;</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f>"&lt;string name="""&amp;P45&amp;"""&gt;"&amp;Sheet1!F45&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="third_in_group_a_b_c_d"&gt;3rd in Groups A/B/C or D&lt;/string&gt;</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="third_in_group_a_b_c_d"&gt;Ba bảng A/B/C hoặc D&lt;/string&gt;</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/first_in_group_e&lt;/item&gt;</v>
+      </c>
+      <c r="V45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/third_in_group_a_b_c_d&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f>"&lt;string name="""&amp;L46&amp;"""&gt;"&amp;Sheet1!E46&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_6"&gt;Winner R16 match 6&lt;/string&gt;</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_r16_match_6"&gt;Thắng trận 6 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f>"&lt;string name="""&amp;P46&amp;"""&gt;"&amp;Sheet1!F46&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_5"&gt;Winner R16 match 5&lt;/string&gt;</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_r16_match_5"&gt;Thắng trận 5 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_r16_match_6&lt;/item&gt;</v>
+      </c>
+      <c r="V46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_r16_match_5&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f>"&lt;string name="""&amp;L47&amp;"""&gt;"&amp;Sheet1!E47&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_4"&gt;Winner R16 match 4&lt;/string&gt;</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_r16_match_4"&gt;Thắng trận 4 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f>"&lt;string name="""&amp;P47&amp;"""&gt;"&amp;Sheet1!F47&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_2"&gt;Winner R16 match 2&lt;/string&gt;</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_r16_match_2"&gt;Thắng trận 2 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_r16_match_4&lt;/item&gt;</v>
+      </c>
+      <c r="V47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_r16_match_2&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f>"&lt;string name="""&amp;L48&amp;"""&gt;"&amp;Sheet1!E48&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_3"&gt;Winner R16 match 3&lt;/string&gt;</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_r16_match_3"&gt;Thắng trận 3 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q48" s="1" t="str">
+        <f>"&lt;string name="""&amp;P48&amp;"""&gt;"&amp;Sheet1!F48&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_1"&gt;Winner R16 match 1&lt;/string&gt;</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_r16_match_1"&gt;Thắng trận 1 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_r16_match_3&lt;/item&gt;</v>
+      </c>
+      <c r="V48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_r16_match_1&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f>"&lt;string name="""&amp;L49&amp;"""&gt;"&amp;Sheet1!E49&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_8"&gt;Winner R16 match 8&lt;/string&gt;</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_r16_match_8"&gt;Thắng trận 8 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q49" s="1" t="str">
+        <f>"&lt;string name="""&amp;P49&amp;"""&gt;"&amp;Sheet1!F49&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_r16_match_7"&gt;Winner R16 match 7&lt;/string&gt;</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_r16_match_7"&gt;Thắng trận 7 vòng 1/16&lt;/string&gt;</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_r16_match_8&lt;/item&gt;</v>
+      </c>
+      <c r="V49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_r16_match_7&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f>"&lt;string name="""&amp;L50&amp;"""&gt;"&amp;Sheet1!E50&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_qf2"&gt;Winner QF2&lt;/string&gt;</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_qf2"&gt;Thắng trận Tứ kết 2&lt;/string&gt;</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q50" s="1" t="str">
+        <f>"&lt;string name="""&amp;P50&amp;"""&gt;"&amp;Sheet1!F50&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_qf1"&gt;Winner QF1&lt;/string&gt;</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_qf1"&gt;Thắng trận Tứ kết 1&lt;/string&gt;</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_qf2&lt;/item&gt;</v>
+      </c>
+      <c r="V50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_qf1&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f>"&lt;string name="""&amp;L51&amp;"""&gt;"&amp;Sheet1!E51&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_qf4"&gt;Winner QF4&lt;/string&gt;</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_qf4"&gt;Thắng trận Tứ kết 4&lt;/string&gt;</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q51" s="1" t="str">
+        <f>"&lt;string name="""&amp;P51&amp;"""&gt;"&amp;Sheet1!F51&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_qf3"&gt;Winner QF3&lt;/string&gt;</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_qf3"&gt;Thắng trận Tứ kết 3&lt;/string&gt;</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_qf4&lt;/item&gt;</v>
+      </c>
+      <c r="V51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_qf3&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f>"&lt;string name="""&amp;L52&amp;"""&gt;"&amp;Sheet1!E52&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_sf1"&gt;Winner SF1&lt;/string&gt;</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;string name="winner_sf1"&gt;Thắng trận Bán kết 1&lt;/string&gt;</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q52" s="1" t="str">
+        <f>"&lt;string name="""&amp;P52&amp;"""&gt;"&amp;Sheet1!F52&amp;"&lt;/string&gt;"</f>
+        <v>&lt;string name="winner_sf2"&gt;Winner SF2&lt;/string&gt;</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;string name="winner_sf2"&gt;Thắng trận Bán kết 2&lt;/string&gt;</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;item&gt;@string/winner_sf1&lt;/item&gt;</v>
+      </c>
+      <c r="V52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;item&gt;@string/winner_sf2&lt;/item&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Euro 2020/fixtures.xlsx
+++ b/Euro 2020/fixtures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidApp\Euro2020\Euro 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68168886-7E94-41ED-B70C-29BC5DB4FF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B6133-FCB3-4E8C-ACEB-1A0753A69F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C2CD83B-E6E4-4F94-BD57-E1E64B0F6C21}"/>
   </bookViews>

--- a/Euro 2020/fixtures.xlsx
+++ b/Euro 2020/fixtures.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidApp\Euro2020\Euro 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\AndroidApp\Euro2020\Euro 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B6133-FCB3-4E8C-ACEB-1A0753A69F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C2CD83B-E6E4-4F94-BD57-E1E64B0F6C21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -499,7 +498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D59385-C7E5-42AF-B9D7-20834E997CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2562,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141BC5EC-061A-4B94-9954-C06F0D46328C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L38:V52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/Euro 2020/fixtures.xlsx
+++ b/Euro 2020/fixtures.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -493,13 +493,28 @@
   </si>
   <si>
     <t>Thắng trận Bán kết 2</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>vs</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,16 +528,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBF3BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -530,17 +576,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2562,11 +2661,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L38:V52"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2582,6 +2679,244 @@
     <col min="22" max="22" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="38" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L38" s="1" t="s">
         <v>82</v>
@@ -3169,5 +3504,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Euro 2020/fixtures.xlsx
+++ b/Euro 2020/fixtures.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\AndroidApp\Euro2020\Euro 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidApp\Euro2020\Euro 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D52B5-013A-466E-973F-850084205954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="163">
   <si>
     <t>id</t>
   </si>
@@ -45,12 +46,6 @@
     <t>team2</t>
   </si>
   <si>
-    <t>score1</t>
-  </si>
-  <si>
-    <t>score2</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -63,12 +58,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>result1</t>
-  </si>
-  <si>
-    <t>result2</t>
-  </si>
-  <si>
     <t>Baku Olympic Stadium - Baku</t>
   </si>
   <si>
@@ -508,12 +497,30 @@
   </si>
   <si>
     <t>1F</t>
+  </si>
+  <si>
+    <t>ftscore1</t>
+  </si>
+  <si>
+    <t>ftscore2</t>
+  </si>
+  <si>
+    <t>etscore1</t>
+  </si>
+  <si>
+    <t>etscore2</t>
+  </si>
+  <si>
+    <t>penscore1</t>
+  </si>
+  <si>
+    <t>penscore2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,10 +961,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -967,20 +974,22 @@
     <col min="4" max="4" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="1"/>
-    <col min="11" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="9.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="1"/>
-    <col min="21" max="22" width="9.140625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="24" width="9.140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,19 +1009,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1020,31 +1035,37 @@
         <v>1623412800822</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1052,31 +1073,37 @@
         <v>1623477600822</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1084,31 +1111,37 @@
         <v>1623488400822</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1116,31 +1149,37 @@
         <v>1623499200822</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1148,31 +1187,37 @@
         <v>1623564000822</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1180,31 +1225,37 @@
         <v>1623574800822</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1212,31 +1263,37 @@
         <v>1623585600822</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1244,31 +1301,37 @@
         <v>1623650400822</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1276,31 +1339,37 @@
         <v>1623661200822</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1308,31 +1377,37 @@
         <v>1623672000822</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1340,31 +1415,37 @@
         <v>1623747600822</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1372,31 +1453,37 @@
         <v>1623758400822</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1404,31 +1491,37 @@
         <v>1623823200822</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1436,31 +1529,37 @@
         <v>1623834000822</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1468,31 +1567,37 @@
         <v>1623844800822</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1500,31 +1605,37 @@
         <v>1623909600822</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1532,31 +1643,37 @@
         <v>1623920400822</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1564,31 +1681,37 @@
         <v>1623931200822</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1596,31 +1719,37 @@
         <v>1623996000822</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1628,31 +1757,37 @@
         <v>1624006800822</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1660,31 +1795,37 @@
         <v>1624017600822</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1692,31 +1833,37 @@
         <v>1624082400822</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1724,31 +1871,37 @@
         <v>1624093200822</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1756,31 +1909,37 @@
         <v>1624104000822</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1788,31 +1947,37 @@
         <v>1624179600822</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1820,31 +1985,37 @@
         <v>1624179600822</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1852,31 +2023,37 @@
         <v>1624266000822</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1884,31 +2061,37 @@
         <v>1624266000822</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1916,31 +2099,37 @@
         <v>1624276800822</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1948,31 +2137,37 @@
         <v>1624276800822</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1980,31 +2175,37 @@
         <v>1624363200822</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2012,31 +2213,37 @@
         <v>1624363200822</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2044,31 +2251,37 @@
         <v>1624438800822</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2076,31 +2289,37 @@
         <v>1624438800822</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2108,31 +2327,37 @@
         <v>1624449600822</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2140,31 +2365,37 @@
         <v>1624449600822</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2172,31 +2403,37 @@
         <v>1624698000822</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2204,31 +2441,37 @@
         <v>1624708800822</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2236,31 +2479,37 @@
         <v>1624784400822</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2268,31 +2517,37 @@
         <v>1624795200822</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2300,31 +2555,37 @@
         <v>1624870800822</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2332,31 +2593,37 @@
         <v>1624881600822</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2364,31 +2631,37 @@
         <v>1624957200822</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2396,31 +2669,37 @@
         <v>1624968000822</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2428,33 +2707,39 @@
         <v>1625216400822</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2462,33 +2747,39 @@
         <v>1625227200822</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="G47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2496,33 +2787,39 @@
         <v>1625302800822</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2530,33 +2827,39 @@
         <v>1625313600822</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2564,31 +2867,37 @@
         <v>1625572800822</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I50" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2596,31 +2905,37 @@
         <v>1625659200822</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H51" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I51" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2628,27 +2943,33 @@
         <v>1626004800822</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J52" s="1">
+        <v>119</v>
+      </c>
+      <c r="G52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L52" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -2660,10 +2981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2681,266 +3004,266 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="38" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L38" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M38" s="1" t="str">
         <f>"&lt;string name="""&amp;L38&amp;"""&gt;"&amp;Sheet1!E38&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_a"&gt;2nd in Group A&lt;/string&gt;</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O38" s="1" t="str">
         <f>"&lt;string name="""&amp;L38&amp;"""&gt;"&amp;N38&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_a"&gt;Nhì bảng A&lt;/string&gt;</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="1" t="str">
         <f>"&lt;string name="""&amp;P38&amp;"""&gt;"&amp;Sheet1!F38&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_b"&gt;2nd in Group B&lt;/string&gt;</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S38" s="1" t="str">
         <f>"&lt;string name="""&amp;P38&amp;"""&gt;"&amp;R38&amp;"&lt;/string&gt;"</f>
@@ -2958,28 +3281,28 @@
     </row>
     <row r="39" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L39" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M39" s="1" t="str">
         <f>"&lt;string name="""&amp;L39&amp;"""&gt;"&amp;Sheet1!E39&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_a"&gt;1st in Group A&lt;/string&gt;</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O39" s="1" t="str">
         <f t="shared" ref="O39:O52" si="0">"&lt;string name="""&amp;L39&amp;"""&gt;"&amp;N39&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_a"&gt;Nhất bảng A&lt;/string&gt;</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f>"&lt;string name="""&amp;P39&amp;"""&gt;"&amp;Sheet1!F39&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_c"&gt;2nd in Group C&lt;/string&gt;</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="S39" s="1" t="str">
         <f t="shared" ref="S39:S52" si="1">"&lt;string name="""&amp;P39&amp;"""&gt;"&amp;R39&amp;"&lt;/string&gt;"</f>
@@ -2997,28 +3320,28 @@
     </row>
     <row r="40" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L40" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M40" s="1" t="str">
         <f>"&lt;string name="""&amp;L40&amp;"""&gt;"&amp;Sheet1!E40&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_c"&gt;1st in Group C&lt;/string&gt;</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="first_in_group_c"&gt;Nhất bảng C&lt;/string&gt;</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f>"&lt;string name="""&amp;P40&amp;"""&gt;"&amp;Sheet1!F40&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="third_in_group_d_e_f"&gt;3rd in Groups D/E or F&lt;/string&gt;</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="S40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3036,28 +3359,28 @@
     </row>
     <row r="41" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M41" s="1" t="str">
         <f>"&lt;string name="""&amp;L41&amp;"""&gt;"&amp;Sheet1!E41&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_b"&gt;1st in Group B&lt;/string&gt;</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="first_in_group_b"&gt;Nhất bảng B&lt;/string&gt;</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q41" s="1" t="str">
         <f>"&lt;string name="""&amp;P41&amp;"""&gt;"&amp;Sheet1!F41&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="third_in_group_a_d_e_f"&gt;3rd in Groups A/D/E or F&lt;/string&gt;</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3075,28 +3398,28 @@
     </row>
     <row r="42" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L42" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M42" s="1" t="str">
         <f>"&lt;string name="""&amp;L42&amp;"""&gt;"&amp;Sheet1!E42&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_d"&gt;2nd in Group D&lt;/string&gt;</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="second_in_group_d"&gt;Nhì bảng D&lt;/string&gt;</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f>"&lt;string name="""&amp;P42&amp;"""&gt;"&amp;Sheet1!F42&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_e"&gt;2nd in Group E&lt;/string&gt;</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="S42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3114,28 +3437,28 @@
     </row>
     <row r="43" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L43" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M43" s="1" t="str">
         <f>"&lt;string name="""&amp;L43&amp;"""&gt;"&amp;Sheet1!E43&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_f"&gt;1st in Group F&lt;/string&gt;</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="first_in_group_f"&gt;Nhất bảng F&lt;/string&gt;</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f>"&lt;string name="""&amp;P43&amp;"""&gt;"&amp;Sheet1!F43&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="third_in_group_a_b_c"&gt;3rd in Groups A/B or C&lt;/string&gt;</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3153,28 +3476,28 @@
     </row>
     <row r="44" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L44" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M44" s="1" t="str">
         <f>"&lt;string name="""&amp;L44&amp;"""&gt;"&amp;Sheet1!E44&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_d"&gt;1st in Group D&lt;/string&gt;</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="first_in_group_d"&gt;Nhất bảng D&lt;/string&gt;</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q44" s="1" t="str">
         <f>"&lt;string name="""&amp;P44&amp;"""&gt;"&amp;Sheet1!F44&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="second_in_group_f"&gt;2nd in Group F&lt;/string&gt;</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="S44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3192,28 +3515,28 @@
     </row>
     <row r="45" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L45" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M45" s="1" t="str">
         <f>"&lt;string name="""&amp;L45&amp;"""&gt;"&amp;Sheet1!E45&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="first_in_group_e"&gt;1st in Group E&lt;/string&gt;</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="first_in_group_e"&gt;Nhất bảng E&lt;/string&gt;</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q45" s="1" t="str">
         <f>"&lt;string name="""&amp;P45&amp;"""&gt;"&amp;Sheet1!F45&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="third_in_group_a_b_c_d"&gt;3rd in Groups A/B/C or D&lt;/string&gt;</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3231,28 +3554,28 @@
     </row>
     <row r="46" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L46" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M46" s="1" t="str">
         <f>"&lt;string name="""&amp;L46&amp;"""&gt;"&amp;Sheet1!E46&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_6"&gt;Winner R16 match 6&lt;/string&gt;</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_r16_match_6"&gt;Thắng trận 6 vòng 1/16&lt;/string&gt;</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q46" s="1" t="str">
         <f>"&lt;string name="""&amp;P46&amp;"""&gt;"&amp;Sheet1!F46&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_5"&gt;Winner R16 match 5&lt;/string&gt;</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3270,28 +3593,28 @@
     </row>
     <row r="47" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L47" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M47" s="1" t="str">
         <f>"&lt;string name="""&amp;L47&amp;"""&gt;"&amp;Sheet1!E47&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_4"&gt;Winner R16 match 4&lt;/string&gt;</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_r16_match_4"&gt;Thắng trận 4 vòng 1/16&lt;/string&gt;</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q47" s="1" t="str">
         <f>"&lt;string name="""&amp;P47&amp;"""&gt;"&amp;Sheet1!F47&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_2"&gt;Winner R16 match 2&lt;/string&gt;</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3309,28 +3632,28 @@
     </row>
     <row r="48" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L48" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M48" s="1" t="str">
         <f>"&lt;string name="""&amp;L48&amp;"""&gt;"&amp;Sheet1!E48&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_3"&gt;Winner R16 match 3&lt;/string&gt;</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_r16_match_3"&gt;Thắng trận 3 vòng 1/16&lt;/string&gt;</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q48" s="1" t="str">
         <f>"&lt;string name="""&amp;P48&amp;"""&gt;"&amp;Sheet1!F48&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_1"&gt;Winner R16 match 1&lt;/string&gt;</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="S48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3348,28 +3671,28 @@
     </row>
     <row r="49" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L49" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M49" s="1" t="str">
         <f>"&lt;string name="""&amp;L49&amp;"""&gt;"&amp;Sheet1!E49&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_8"&gt;Winner R16 match 8&lt;/string&gt;</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_r16_match_8"&gt;Thắng trận 8 vòng 1/16&lt;/string&gt;</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q49" s="1" t="str">
         <f>"&lt;string name="""&amp;P49&amp;"""&gt;"&amp;Sheet1!F49&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_r16_match_7"&gt;Winner R16 match 7&lt;/string&gt;</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3387,28 +3710,28 @@
     </row>
     <row r="50" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L50" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M50" s="1" t="str">
         <f>"&lt;string name="""&amp;L50&amp;"""&gt;"&amp;Sheet1!E50&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_qf2"&gt;Winner QF2&lt;/string&gt;</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_qf2"&gt;Thắng trận Tứ kết 2&lt;/string&gt;</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q50" s="1" t="str">
         <f>"&lt;string name="""&amp;P50&amp;"""&gt;"&amp;Sheet1!F50&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_qf1"&gt;Winner QF1&lt;/string&gt;</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3426,28 +3749,28 @@
     </row>
     <row r="51" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L51" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M51" s="1" t="str">
         <f>"&lt;string name="""&amp;L51&amp;"""&gt;"&amp;Sheet1!E51&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_qf4"&gt;Winner QF4&lt;/string&gt;</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_qf4"&gt;Thắng trận Tứ kết 4&lt;/string&gt;</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q51" s="1" t="str">
         <f>"&lt;string name="""&amp;P51&amp;"""&gt;"&amp;Sheet1!F51&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_qf3"&gt;Winner QF3&lt;/string&gt;</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3465,28 +3788,28 @@
     </row>
     <row r="52" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L52" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M52" s="1" t="str">
         <f>"&lt;string name="""&amp;L52&amp;"""&gt;"&amp;Sheet1!E52&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_sf1"&gt;Winner SF1&lt;/string&gt;</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>&lt;string name="winner_sf1"&gt;Thắng trận Bán kết 1&lt;/string&gt;</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q52" s="1" t="str">
         <f>"&lt;string name="""&amp;P52&amp;"""&gt;"&amp;Sheet1!F52&amp;"&lt;/string&gt;"</f>
         <v>&lt;string name="winner_sf2"&gt;Winner SF2&lt;/string&gt;</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S52" s="1" t="str">
         <f t="shared" si="1"/>
